--- a/data_quarter/zb/建筑业/国有及国有控股建筑业企业签订合同情况.xlsx
+++ b/data_quarter/zb/建筑业/国有及国有控股建筑业企业签订合同情况.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,11 +449,26 @@
           <t>国有及国有控股建筑业企业本年新签合同金额_累计值</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业上年结转合同金额</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业合同金额</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业本年新签合同金额</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年第一季度</t>
+          <t>2004年A</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -465,43 +480,70 @@
       <c r="D2" t="n">
         <v>2320.81</v>
       </c>
+      <c r="E2" t="n">
+        <v>6699.17</v>
+      </c>
+      <c r="F2" t="n">
+        <v>9019.98</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2320.81</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2004年第三季度</t>
+          <t>2004年B</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7770.86</v>
+        <v>7546.2</v>
       </c>
       <c r="C3" t="n">
-        <v>16503.22</v>
+        <v>12996.49</v>
       </c>
       <c r="D3" t="n">
-        <v>8732.360000000001</v>
+        <v>5450.29</v>
+      </c>
+      <c r="E3" t="n">
+        <v>847.0299999999997</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3976.51</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3129.48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年第二季度</t>
+          <t>2004年C</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7546.2</v>
+        <v>7770.86</v>
       </c>
       <c r="C4" t="n">
-        <v>12996.49</v>
+        <v>16503.22</v>
       </c>
       <c r="D4" t="n">
-        <v>5450.29</v>
+        <v>8732.360000000001</v>
+      </c>
+      <c r="E4" t="n">
+        <v>224.6599999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3506.730000000001</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3282.070000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2004年第四季度</t>
+          <t>2004年D</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -513,11 +555,20 @@
       <c r="D5" t="n">
         <v>13015.67</v>
       </c>
+      <c r="E5" t="n">
+        <v>465.8800000000001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4749.189999999999</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4283.309999999999</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2005年第一季度</t>
+          <t>2005年A</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -529,43 +580,70 @@
       <c r="D6" t="n">
         <v>2571.98</v>
       </c>
+      <c r="E6" t="n">
+        <v>8213.16</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10785.15</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2571.98</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年第三季度</t>
+          <t>2005年B</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9501.059999999999</v>
+        <v>9098.379999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>19080.58</v>
+        <v>15199.97</v>
       </c>
       <c r="D7" t="n">
-        <v>9579.52</v>
+        <v>6101.59</v>
+      </c>
+      <c r="E7" t="n">
+        <v>885.2199999999993</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4414.82</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3529.61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2005年第二季度</t>
+          <t>2005年C</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9098.379999999999</v>
+        <v>9501.059999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>15199.97</v>
+        <v>19080.58</v>
       </c>
       <c r="D8" t="n">
-        <v>6101.59</v>
+        <v>9579.52</v>
+      </c>
+      <c r="E8" t="n">
+        <v>402.6800000000003</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3880.610000000002</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3477.93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2005年第四季度</t>
+          <t>2005年D</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -577,11 +655,20 @@
       <c r="D9" t="n">
         <v>14936.95</v>
       </c>
+      <c r="E9" t="n">
+        <v>380.8199999999997</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5738.25</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5357.43</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2006年第一季度</t>
+          <t>2006年A</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -593,43 +680,70 @@
       <c r="D10" t="n">
         <v>2778.97</v>
       </c>
+      <c r="E10" t="n">
+        <v>896.6900000000005</v>
+      </c>
+      <c r="F10" t="n">
+        <v>13557.54</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2778.97</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2006年第三季度</t>
+          <t>2006年B</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12266.07</v>
+        <v>11681.81</v>
       </c>
       <c r="C11" t="n">
-        <v>23848.68</v>
+        <v>18831.93</v>
       </c>
       <c r="D11" t="n">
-        <v>11582.61</v>
+        <v>7150.12</v>
+      </c>
+      <c r="E11" t="n">
+        <v>903.2399999999998</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5274.389999999999</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4371.15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2006年第二季度</t>
+          <t>2006年C</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11681.81</v>
+        <v>12266.07</v>
       </c>
       <c r="C12" t="n">
-        <v>18831.93</v>
+        <v>23848.68</v>
       </c>
       <c r="D12" t="n">
-        <v>7150.12</v>
+        <v>11582.61</v>
+      </c>
+      <c r="E12" t="n">
+        <v>584.2600000000002</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5016.75</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4432.490000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2006年第四季度</t>
+          <t>2006年D</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -641,11 +755,20 @@
       <c r="D13" t="n">
         <v>17376.19</v>
       </c>
+      <c r="E13" t="n">
+        <v>408.2200000000012</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6201.799999999999</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5793.579999999998</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2007年第一季度</t>
+          <t>2007年A</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -657,43 +780,70 @@
       <c r="D14" t="n">
         <v>2954.39</v>
       </c>
+      <c r="E14" t="n">
+        <v>275.2799999999988</v>
+      </c>
+      <c r="F14" t="n">
+        <v>15903.96</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2954.39</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2007年第三季度</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>14209.93</v>
+        <v>13919.39</v>
       </c>
       <c r="C15" t="n">
-        <v>27598.26</v>
+        <v>21937.88</v>
       </c>
       <c r="D15" t="n">
-        <v>13388.33</v>
+        <v>8018.49</v>
+      </c>
+      <c r="E15" t="n">
+        <v>969.8199999999997</v>
+      </c>
+      <c r="F15" t="n">
+        <v>6033.920000000002</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5064.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2007年第二季度</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13919.39</v>
+        <v>14209.93</v>
       </c>
       <c r="C16" t="n">
-        <v>21937.88</v>
+        <v>27598.26</v>
       </c>
       <c r="D16" t="n">
-        <v>8018.49</v>
+        <v>13388.33</v>
+      </c>
+      <c r="E16" t="n">
+        <v>290.5400000000009</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5660.379999999997</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5369.84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2007年第四季度</t>
+          <t>2007年D</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -705,11 +855,20 @@
       <c r="D17" t="n">
         <v>19840.85</v>
       </c>
+      <c r="E17" t="n">
+        <v>14108.56</v>
+      </c>
+      <c r="F17" t="n">
+        <v>6351.16</v>
+      </c>
+      <c r="G17" t="n">
+        <v>6452.519999999999</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2008年第一季度</t>
+          <t>2008年A</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -721,43 +880,70 @@
       <c r="D18" t="n">
         <v>4052.21</v>
       </c>
+      <c r="E18" t="n">
+        <v>2055.16</v>
+      </c>
+      <c r="F18" t="n">
+        <v>20215.93</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4052.21</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2008年第三季度</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>17662.36</v>
+        <v>17300.88</v>
       </c>
       <c r="C19" t="n">
-        <v>34528.08</v>
+        <v>27971.48</v>
       </c>
       <c r="D19" t="n">
-        <v>16865.72</v>
+        <v>10670.59</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1137.160000000002</v>
+      </c>
+      <c r="F19" t="n">
+        <v>7755.549999999999</v>
+      </c>
+      <c r="G19" t="n">
+        <v>6618.38</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2008年第二季度</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>17300.88</v>
+        <v>17662.36</v>
       </c>
       <c r="C20" t="n">
-        <v>27971.48</v>
+        <v>34528.08</v>
       </c>
       <c r="D20" t="n">
-        <v>10670.59</v>
+        <v>16865.72</v>
+      </c>
+      <c r="E20" t="n">
+        <v>361.4799999999996</v>
+      </c>
+      <c r="F20" t="n">
+        <v>6556.600000000002</v>
+      </c>
+      <c r="G20" t="n">
+        <v>6195.130000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2008年第四季度</t>
+          <t>2008年D</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -769,11 +955,20 @@
       <c r="D21" t="n">
         <v>25703.41</v>
       </c>
+      <c r="E21" t="n">
+        <v>623.9099999999999</v>
+      </c>
+      <c r="F21" t="n">
+        <v>9461.599999999999</v>
+      </c>
+      <c r="G21" t="n">
+        <v>8837.689999999999</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2009年第一季度</t>
+          <t>2009年A</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -785,43 +980,70 @@
       <c r="D22" t="n">
         <v>5596.79</v>
       </c>
+      <c r="E22" t="n">
+        <v>3779.419999999998</v>
+      </c>
+      <c r="F22" t="n">
+        <v>27662.48</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5596.79</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2009年第三季度</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>22938.16</v>
+        <v>23709.04</v>
       </c>
       <c r="C23" t="n">
-        <v>44796.03</v>
+        <v>37891.58</v>
       </c>
       <c r="D23" t="n">
-        <v>21857.87</v>
+        <v>14182.53</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1643.350000000002</v>
+      </c>
+      <c r="F23" t="n">
+        <v>10229.1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>8585.740000000002</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2009年第二季度</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>23709.04</v>
+        <v>22938.16</v>
       </c>
       <c r="C24" t="n">
-        <v>37891.58</v>
+        <v>44796.03</v>
       </c>
       <c r="D24" t="n">
-        <v>14182.53</v>
+        <v>21857.87</v>
+      </c>
+      <c r="E24" t="n">
+        <v>22938.16</v>
+      </c>
+      <c r="F24" t="n">
+        <v>6904.449999999997</v>
+      </c>
+      <c r="G24" t="n">
+        <v>7675.339999999998</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2009年第四季度</t>
+          <t>2009年D</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -833,11 +1055,20 @@
       <c r="D25" t="n">
         <v>35523.86</v>
       </c>
+      <c r="E25" t="n">
+        <v>1232.639999999999</v>
+      </c>
+      <c r="F25" t="n">
+        <v>14898.63</v>
+      </c>
+      <c r="G25" t="n">
+        <v>13665.99</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2010年第一季度</t>
+          <t>2010年A</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -849,43 +1080,70 @@
       <c r="D26" t="n">
         <v>6874.69</v>
       </c>
+      <c r="E26" t="n">
+        <v>5046.970000000001</v>
+      </c>
+      <c r="F26" t="n">
+        <v>36092.46</v>
+      </c>
+      <c r="G26" t="n">
+        <v>6874.69</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2010年第三季度</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>31542.38</v>
+        <v>31293.29</v>
       </c>
       <c r="C27" t="n">
-        <v>59095.01</v>
+        <v>48321.98</v>
       </c>
       <c r="D27" t="n">
-        <v>27552.63</v>
+        <v>17028.69</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2075.52</v>
+      </c>
+      <c r="F27" t="n">
+        <v>12229.52</v>
+      </c>
+      <c r="G27" t="n">
+        <v>10154</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2010年第二季度</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31293.29</v>
+        <v>31542.38</v>
       </c>
       <c r="C28" t="n">
-        <v>48321.98</v>
+        <v>59095.01</v>
       </c>
       <c r="D28" t="n">
-        <v>17028.69</v>
+        <v>27552.63</v>
+      </c>
+      <c r="E28" t="n">
+        <v>249.0900000000001</v>
+      </c>
+      <c r="F28" t="n">
+        <v>10773.03</v>
+      </c>
+      <c r="G28" t="n">
+        <v>10523.94</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2010年第四季度</t>
+          <t>2010年D</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -897,11 +1155,20 @@
       <c r="D29" t="n">
         <v>43034.28</v>
       </c>
+      <c r="E29" t="n">
+        <v>117.6800000000003</v>
+      </c>
+      <c r="F29" t="n">
+        <v>15599.32999999999</v>
+      </c>
+      <c r="G29" t="n">
+        <v>15481.65</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2011年第一季度</t>
+          <t>2011年A</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -913,43 +1180,70 @@
       <c r="D30" t="n">
         <v>7948.51</v>
       </c>
+      <c r="E30" t="n">
+        <v>9291.740000000002</v>
+      </c>
+      <c r="F30" t="n">
+        <v>48900.32</v>
+      </c>
+      <c r="G30" t="n">
+        <v>7948.51</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2011年第三季度</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>40170.8</v>
+        <v>41517.13</v>
       </c>
       <c r="C31" t="n">
-        <v>69761</v>
+        <v>60320.41</v>
       </c>
       <c r="D31" t="n">
-        <v>29590.19</v>
+        <v>18803.28</v>
+      </c>
+      <c r="E31" t="n">
+        <v>565.3299999999945</v>
+      </c>
+      <c r="F31" t="n">
+        <v>11420.09</v>
+      </c>
+      <c r="G31" t="n">
+        <v>10854.77</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2011年第二季度</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>41517.13</v>
+        <v>40170.8</v>
       </c>
       <c r="C32" t="n">
-        <v>60320.41</v>
+        <v>69761</v>
       </c>
       <c r="D32" t="n">
-        <v>18803.28</v>
+        <v>29590.19</v>
+      </c>
+      <c r="E32" t="n">
+        <v>40170.8</v>
+      </c>
+      <c r="F32" t="n">
+        <v>9440.589999999997</v>
+      </c>
+      <c r="G32" t="n">
+        <v>10786.91</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2011年第四季度</t>
+          <t>2011年D</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -961,11 +1255,20 @@
       <c r="D33" t="n">
         <v>44335.52</v>
       </c>
+      <c r="E33" t="n">
+        <v>1140.209999999999</v>
+      </c>
+      <c r="F33" t="n">
+        <v>15885.53</v>
+      </c>
+      <c r="G33" t="n">
+        <v>14745.33</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2012年第一季度</t>
+          <t>2012年A</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -977,43 +1280,70 @@
       <c r="D34" t="n">
         <v>8466.360000000001</v>
       </c>
+      <c r="E34" t="n">
+        <v>3718.449999999997</v>
+      </c>
+      <c r="F34" t="n">
+        <v>53495.82</v>
+      </c>
+      <c r="G34" t="n">
+        <v>8466.360000000001</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2012年第三季度</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>47846.21</v>
+        <v>47669.21</v>
       </c>
       <c r="C35" t="n">
-        <v>81879.64999999999</v>
+        <v>68804.60000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>34033.44</v>
+        <v>21135.39</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2639.75</v>
+      </c>
+      <c r="F35" t="n">
+        <v>15308.78000000001</v>
+      </c>
+      <c r="G35" t="n">
+        <v>12669.03</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2012年第二季度</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>47669.21</v>
+        <v>47846.21</v>
       </c>
       <c r="C36" t="n">
-        <v>68804.60000000001</v>
+        <v>81879.64999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>21135.39</v>
+        <v>34033.44</v>
+      </c>
+      <c r="E36" t="n">
+        <v>177</v>
+      </c>
+      <c r="F36" t="n">
+        <v>13075.04999999999</v>
+      </c>
+      <c r="G36" t="n">
+        <v>12898.05</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2012年第四季度</t>
+          <t>2012年D</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1025,11 +1355,20 @@
       <c r="D37" t="n">
         <v>52350.44</v>
       </c>
+      <c r="E37" t="n">
+        <v>1199.43</v>
+      </c>
+      <c r="F37" t="n">
+        <v>19516.43000000001</v>
+      </c>
+      <c r="G37" t="n">
+        <v>18317</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2013年第一季度</t>
+          <t>2013年A</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1041,43 +1380,70 @@
       <c r="D38" t="n">
         <v>10538.94</v>
       </c>
+      <c r="E38" t="n">
+        <v>726.8199999999997</v>
+      </c>
+      <c r="F38" t="n">
+        <v>60311.41</v>
+      </c>
+      <c r="G38" t="n">
+        <v>10538.94</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2013年第三季度</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>52987.46</v>
+        <v>52777.89</v>
       </c>
       <c r="C39" t="n">
-        <v>94817.49000000001</v>
+        <v>80084.78</v>
       </c>
       <c r="D39" t="n">
-        <v>41830.03</v>
+        <v>27306.89</v>
+      </c>
+      <c r="E39" t="n">
+        <v>3005.43</v>
+      </c>
+      <c r="F39" t="n">
+        <v>19773.37</v>
+      </c>
+      <c r="G39" t="n">
+        <v>16767.95</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2013年第二季度</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52777.89</v>
+        <v>52987.46</v>
       </c>
       <c r="C40" t="n">
-        <v>80084.78</v>
+        <v>94817.49000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>27306.89</v>
+        <v>41830.03</v>
+      </c>
+      <c r="E40" t="n">
+        <v>209.5699999999997</v>
+      </c>
+      <c r="F40" t="n">
+        <v>14732.71000000001</v>
+      </c>
+      <c r="G40" t="n">
+        <v>14523.14</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2013年第四季度</t>
+          <t>2013年D</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1089,11 +1455,20 @@
       <c r="D41" t="n">
         <v>62077.67</v>
       </c>
+      <c r="E41" t="n">
+        <v>432.8199999999997</v>
+      </c>
+      <c r="F41" t="n">
+        <v>20680.45</v>
+      </c>
+      <c r="G41" t="n">
+        <v>20247.64</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2014年第一季度</t>
+          <t>2014年A</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1105,43 +1480,70 @@
       <c r="D42" t="n">
         <v>11687.69</v>
       </c>
+      <c r="E42" t="n">
+        <v>5148.489999999998</v>
+      </c>
+      <c r="F42" t="n">
+        <v>70256.46000000001</v>
+      </c>
+      <c r="G42" t="n">
+        <v>11687.69</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2014年第三季度</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>63402.44</v>
+        <v>63154.32</v>
       </c>
       <c r="C43" t="n">
-        <v>108246.84</v>
+        <v>93486.33</v>
       </c>
       <c r="D43" t="n">
-        <v>44844.4</v>
+        <v>30332.01</v>
+      </c>
+      <c r="E43" t="n">
+        <v>4585.550000000003</v>
+      </c>
+      <c r="F43" t="n">
+        <v>23229.87</v>
+      </c>
+      <c r="G43" t="n">
+        <v>18644.32</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2014年第二季度</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>63154.32</v>
+        <v>63402.44</v>
       </c>
       <c r="C44" t="n">
-        <v>93486.33</v>
+        <v>108246.84</v>
       </c>
       <c r="D44" t="n">
-        <v>30332.01</v>
+        <v>44844.4</v>
+      </c>
+      <c r="E44" t="n">
+        <v>248.1200000000026</v>
+      </c>
+      <c r="F44" t="n">
+        <v>14760.50999999999</v>
+      </c>
+      <c r="G44" t="n">
+        <v>14512.39</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2014年第四季度</t>
+          <t>2014年D</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1153,11 +1555,20 @@
       <c r="D45" t="n">
         <v>66228.75</v>
       </c>
+      <c r="E45" t="n">
+        <v>1494.779999999999</v>
+      </c>
+      <c r="F45" t="n">
+        <v>22879.12</v>
+      </c>
+      <c r="G45" t="n">
+        <v>21384.35</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2015年第一季度</t>
+          <t>2015年A</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1169,43 +1580,70 @@
       <c r="D46" t="n">
         <v>11326.24</v>
       </c>
+      <c r="E46" t="n">
+        <v>2340.520000000004</v>
+      </c>
+      <c r="F46" t="n">
+        <v>78563.98</v>
+      </c>
+      <c r="G46" t="n">
+        <v>11326.24</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2015年第三季度</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>71917.85000000001</v>
+        <v>70043.62</v>
       </c>
       <c r="C47" t="n">
-        <v>114815.09</v>
+        <v>97741.57000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>42897.24</v>
+        <v>27697.95</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2805.87999999999</v>
+      </c>
+      <c r="F47" t="n">
+        <v>19177.59000000001</v>
+      </c>
+      <c r="G47" t="n">
+        <v>16371.71</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2015年第二季度</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>70043.62</v>
+        <v>71917.85000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>97741.57000000001</v>
+        <v>114815.09</v>
       </c>
       <c r="D48" t="n">
-        <v>27697.95</v>
+        <v>42897.24</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1874.23000000001</v>
+      </c>
+      <c r="F48" t="n">
+        <v>17073.51999999999</v>
+      </c>
+      <c r="G48" t="n">
+        <v>15199.29</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2015年第四季度</t>
+          <t>2015年D</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1217,11 +1655,20 @@
       <c r="D49" t="n">
         <v>70014.07000000001</v>
       </c>
+      <c r="E49" t="n">
+        <v>996.2099999999919</v>
+      </c>
+      <c r="F49" t="n">
+        <v>28113.04000000001</v>
+      </c>
+      <c r="G49" t="n">
+        <v>27116.83000000001</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2016年第一季度</t>
+          <t>2016年A</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1233,43 +1680,70 @@
       <c r="D50" t="n">
         <v>13691.49</v>
       </c>
+      <c r="E50" t="n">
+        <v>2739.600000000006</v>
+      </c>
+      <c r="F50" t="n">
+        <v>89345.14999999999</v>
+      </c>
+      <c r="G50" t="n">
+        <v>13691.49</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2016年第三季度</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>80422.46000000001</v>
+        <v>79965.27</v>
       </c>
       <c r="C51" t="n">
-        <v>134207.07</v>
+        <v>114821.32</v>
       </c>
       <c r="D51" t="n">
-        <v>53784.6</v>
+        <v>34856.05</v>
+      </c>
+      <c r="E51" t="n">
+        <v>4311.610000000001</v>
+      </c>
+      <c r="F51" t="n">
+        <v>25476.17000000001</v>
+      </c>
+      <c r="G51" t="n">
+        <v>21164.56</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2016年第二季度</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>79965.27</v>
+        <v>80422.46000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>114821.32</v>
+        <v>134207.07</v>
       </c>
       <c r="D52" t="n">
-        <v>34856.05</v>
+        <v>53784.6</v>
+      </c>
+      <c r="E52" t="n">
+        <v>457.1900000000023</v>
+      </c>
+      <c r="F52" t="n">
+        <v>19385.75</v>
+      </c>
+      <c r="G52" t="n">
+        <v>18928.55</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2016年第四季度</t>
+          <t>2016年D</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1281,11 +1755,20 @@
       <c r="D53" t="n">
         <v>84889.85000000001</v>
       </c>
+      <c r="E53" t="n">
+        <v>500.5099999999948</v>
+      </c>
+      <c r="F53" t="n">
+        <v>31605.75</v>
+      </c>
+      <c r="G53" t="n">
+        <v>31105.25000000001</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2017年第一季度</t>
+          <t>2017年A</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1297,43 +1780,70 @@
       <c r="D54" t="n">
         <v>17211.45</v>
       </c>
+      <c r="E54" t="n">
+        <v>14139.2</v>
+      </c>
+      <c r="F54" t="n">
+        <v>112273.62</v>
+      </c>
+      <c r="G54" t="n">
+        <v>17211.45</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2017年第三季度</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>101984.83</v>
+        <v>101303.22</v>
       </c>
       <c r="C55" t="n">
-        <v>170452.71</v>
+        <v>145215.45</v>
       </c>
       <c r="D55" t="n">
-        <v>68467.88</v>
+        <v>43912.23</v>
+      </c>
+      <c r="E55" t="n">
+        <v>6241.050000000003</v>
+      </c>
+      <c r="F55" t="n">
+        <v>32941.83000000002</v>
+      </c>
+      <c r="G55" t="n">
+        <v>26700.78</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2017年第二季度</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>101303.22</v>
+        <v>101984.83</v>
       </c>
       <c r="C56" t="n">
-        <v>145215.45</v>
+        <v>170452.71</v>
       </c>
       <c r="D56" t="n">
-        <v>43912.23</v>
+        <v>68467.88</v>
+      </c>
+      <c r="E56" t="n">
+        <v>681.6100000000006</v>
+      </c>
+      <c r="F56" t="n">
+        <v>25237.25999999998</v>
+      </c>
+      <c r="G56" t="n">
+        <v>24555.65</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2017年第四季度</t>
+          <t>2017年D</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1345,11 +1855,20 @@
       <c r="D57" t="n">
         <v>106054.35</v>
       </c>
+      <c r="E57" t="n">
+        <v>100082.22</v>
+      </c>
+      <c r="F57" t="n">
+        <v>35683.86000000002</v>
+      </c>
+      <c r="G57" t="n">
+        <v>37586.47</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2018年第一季度</t>
+          <t>2018年A</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1361,43 +1880,70 @@
       <c r="D58" t="n">
         <v>20839.61</v>
       </c>
+      <c r="E58" t="n">
+        <v>18889.73</v>
+      </c>
+      <c r="F58" t="n">
+        <v>139811.56</v>
+      </c>
+      <c r="G58" t="n">
+        <v>20839.61</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2018年第三季度</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>127765.78</v>
+        <v>125770.17</v>
       </c>
       <c r="C59" t="n">
-        <v>199460.57</v>
+        <v>174143.07</v>
       </c>
       <c r="D59" t="n">
-        <v>71694.8</v>
+        <v>48372.89</v>
+      </c>
+      <c r="E59" t="n">
+        <v>6798.220000000001</v>
+      </c>
+      <c r="F59" t="n">
+        <v>34331.51000000001</v>
+      </c>
+      <c r="G59" t="n">
+        <v>27533.28</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2018年第二季度</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>125770.17</v>
+        <v>127765.78</v>
       </c>
       <c r="C60" t="n">
-        <v>174143.07</v>
+        <v>199460.57</v>
       </c>
       <c r="D60" t="n">
-        <v>48372.89</v>
+        <v>71694.8</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1995.610000000001</v>
+      </c>
+      <c r="F60" t="n">
+        <v>25317.5</v>
+      </c>
+      <c r="G60" t="n">
+        <v>23321.91</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2018年第四季度</t>
+          <t>2018年D</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1409,11 +1955,20 @@
       <c r="D61" t="n">
         <v>111253.26</v>
       </c>
+      <c r="E61" t="n">
+        <v>124603.91</v>
+      </c>
+      <c r="F61" t="n">
+        <v>36396.60000000001</v>
+      </c>
+      <c r="G61" t="n">
+        <v>39558.45999999999</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2019年第一季度</t>
+          <t>2019年A</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1425,43 +1980,70 @@
       <c r="D62" t="n">
         <v>22376.92</v>
       </c>
+      <c r="E62" t="n">
+        <v>10434.66</v>
+      </c>
+      <c r="F62" t="n">
+        <v>157415.49</v>
+      </c>
+      <c r="G62" t="n">
+        <v>22376.92</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2019年第三季度</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>142187.94</v>
+        <v>139664.08</v>
       </c>
       <c r="C63" t="n">
-        <v>223027.42</v>
+        <v>191636.18</v>
       </c>
       <c r="D63" t="n">
-        <v>80839.48</v>
+        <v>51972.1</v>
+      </c>
+      <c r="E63" t="n">
+        <v>4625.50999999998</v>
+      </c>
+      <c r="F63" t="n">
+        <v>34220.69</v>
+      </c>
+      <c r="G63" t="n">
+        <v>29595.18</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2019年第二季度</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>139664.08</v>
+        <v>142187.94</v>
       </c>
       <c r="C64" t="n">
-        <v>191636.18</v>
+        <v>223027.42</v>
       </c>
       <c r="D64" t="n">
-        <v>51972.1</v>
+        <v>80839.48</v>
+      </c>
+      <c r="E64" t="n">
+        <v>2523.860000000015</v>
+      </c>
+      <c r="F64" t="n">
+        <v>31391.24000000002</v>
+      </c>
+      <c r="G64" t="n">
+        <v>28867.38</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2019年第四季度</t>
+          <t>2019年D</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1473,11 +2055,20 @@
       <c r="D65" t="n">
         <v>127556.85</v>
       </c>
+      <c r="E65" t="n">
+        <v>3342.109999999986</v>
+      </c>
+      <c r="F65" t="n">
+        <v>50059.48000000001</v>
+      </c>
+      <c r="G65" t="n">
+        <v>46717.37000000001</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2020年第一季度</t>
+          <t>2020年A</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1489,43 +2080,70 @@
       <c r="D66" t="n">
         <v>20998.78</v>
       </c>
+      <c r="E66" t="n">
+        <v>7388</v>
+      </c>
+      <c r="F66" t="n">
+        <v>173916.82</v>
+      </c>
+      <c r="G66" t="n">
+        <v>20998.78</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2020年第三季度</t>
+          <t>2020年B</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>152481.9</v>
+        <v>153345.36</v>
       </c>
       <c r="C67" t="n">
-        <v>245453.5</v>
+        <v>210484.5</v>
       </c>
       <c r="D67" t="n">
-        <v>92971.60000000001</v>
+        <v>57139.14</v>
+      </c>
+      <c r="E67" t="n">
+        <v>427.3099999999977</v>
+      </c>
+      <c r="F67" t="n">
+        <v>36567.67999999999</v>
+      </c>
+      <c r="G67" t="n">
+        <v>36140.36</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2020年第二季度</t>
+          <t>2020年C</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>153345.36</v>
+        <v>152481.9</v>
       </c>
       <c r="C68" t="n">
-        <v>210484.5</v>
+        <v>245453.5</v>
       </c>
       <c r="D68" t="n">
-        <v>57139.14</v>
+        <v>92971.60000000001</v>
+      </c>
+      <c r="E68" t="n">
+        <v>152481.9</v>
+      </c>
+      <c r="F68" t="n">
+        <v>34969</v>
+      </c>
+      <c r="G68" t="n">
+        <v>35832.46000000001</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2020年第四季度</t>
+          <t>2020年D</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1537,11 +2155,20 @@
       <c r="D69" t="n">
         <v>152439.43</v>
       </c>
+      <c r="E69" t="n">
+        <v>3619.470000000001</v>
+      </c>
+      <c r="F69" t="n">
+        <v>63087.29999999999</v>
+      </c>
+      <c r="G69" t="n">
+        <v>59467.82999999999</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2021年第一季度</t>
+          <t>2021年A</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1553,43 +2180,70 @@
       <c r="D70" t="n">
         <v>28096.69</v>
       </c>
+      <c r="E70" t="n">
+        <v>8876.350000000006</v>
+      </c>
+      <c r="F70" t="n">
+        <v>193074.42</v>
+      </c>
+      <c r="G70" t="n">
+        <v>28096.69</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2021年第三季度</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>178375.53</v>
+        <v>175853.22</v>
       </c>
       <c r="C71" t="n">
-        <v>279615.39</v>
+        <v>244267</v>
       </c>
       <c r="D71" t="n">
-        <v>101239.86</v>
+        <v>68413.78</v>
+      </c>
+      <c r="E71" t="n">
+        <v>10875.5</v>
+      </c>
+      <c r="F71" t="n">
+        <v>51192.57999999999</v>
+      </c>
+      <c r="G71" t="n">
+        <v>40317.09</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2021年第二季度</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>175853.22</v>
+        <v>178375.53</v>
       </c>
       <c r="C72" t="n">
-        <v>244267</v>
+        <v>279615.39</v>
       </c>
       <c r="D72" t="n">
-        <v>68413.78</v>
+        <v>101239.86</v>
+      </c>
+      <c r="E72" t="n">
+        <v>2522.309999999998</v>
+      </c>
+      <c r="F72" t="n">
+        <v>35348.39000000001</v>
+      </c>
+      <c r="G72" t="n">
+        <v>32826.08</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2021年第四季度</t>
+          <t>2021年D</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1600,6 +2254,15 @@
       </c>
       <c r="D73" t="n">
         <v>165668.86</v>
+      </c>
+      <c r="E73" t="n">
+        <v>4141.98000000001</v>
+      </c>
+      <c r="F73" t="n">
+        <v>68570.96999999997</v>
+      </c>
+      <c r="G73" t="n">
+        <v>64428.99999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data_quarter/zb/建筑业/国有及国有控股建筑业企业签订合同情况.xlsx
+++ b/data_quarter/zb/建筑业/国有及国有控股建筑业企业签订合同情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,21 +449,6 @@
           <t>国有及国有控股建筑业企业本年新签合同金额_累计值</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>国有及国有控股建筑业企业上年结转合同金额</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>国有及国有控股建筑业企业合同金额</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>国有及国有控股建筑业企业本年新签合同金额</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -480,64 +465,37 @@
       <c r="D2" t="n">
         <v>2320.81</v>
       </c>
-      <c r="E2" t="n">
-        <v>6699.17</v>
-      </c>
-      <c r="F2" t="n">
-        <v>9019.98</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2320.81</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2004年B</t>
+          <t>2004年C</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7546.2</v>
+        <v>7770.86</v>
       </c>
       <c r="C3" t="n">
-        <v>12996.49</v>
+        <v>16503.22</v>
       </c>
       <c r="D3" t="n">
-        <v>5450.29</v>
-      </c>
-      <c r="E3" t="n">
-        <v>847.0299999999997</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3976.51</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3129.48</v>
+        <v>8732.360000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年C</t>
+          <t>2004年B</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7770.86</v>
+        <v>7546.2</v>
       </c>
       <c r="C4" t="n">
-        <v>16503.22</v>
+        <v>12996.49</v>
       </c>
       <c r="D4" t="n">
-        <v>8732.360000000001</v>
-      </c>
-      <c r="E4" t="n">
-        <v>224.6599999999999</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3506.730000000001</v>
-      </c>
-      <c r="G4" t="n">
-        <v>3282.070000000001</v>
+        <v>5450.29</v>
       </c>
     </row>
     <row r="5">
@@ -555,15 +513,6 @@
       <c r="D5" t="n">
         <v>13015.67</v>
       </c>
-      <c r="E5" t="n">
-        <v>465.8800000000001</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4749.189999999999</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4283.309999999999</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -580,64 +529,37 @@
       <c r="D6" t="n">
         <v>2571.98</v>
       </c>
-      <c r="E6" t="n">
-        <v>8213.16</v>
-      </c>
-      <c r="F6" t="n">
-        <v>10785.15</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2571.98</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年B</t>
+          <t>2005年C</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9098.379999999999</v>
+        <v>9501.059999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>15199.97</v>
+        <v>19080.58</v>
       </c>
       <c r="D7" t="n">
-        <v>6101.59</v>
-      </c>
-      <c r="E7" t="n">
-        <v>885.2199999999993</v>
-      </c>
-      <c r="F7" t="n">
-        <v>4414.82</v>
-      </c>
-      <c r="G7" t="n">
-        <v>3529.61</v>
+        <v>9579.52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2005年C</t>
+          <t>2005年B</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9501.059999999999</v>
+        <v>9098.379999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>19080.58</v>
+        <v>15199.97</v>
       </c>
       <c r="D8" t="n">
-        <v>9579.52</v>
-      </c>
-      <c r="E8" t="n">
-        <v>402.6800000000003</v>
-      </c>
-      <c r="F8" t="n">
-        <v>3880.610000000002</v>
-      </c>
-      <c r="G8" t="n">
-        <v>3477.93</v>
+        <v>6101.59</v>
       </c>
     </row>
     <row r="9">
@@ -655,15 +577,6 @@
       <c r="D9" t="n">
         <v>14936.95</v>
       </c>
-      <c r="E9" t="n">
-        <v>380.8199999999997</v>
-      </c>
-      <c r="F9" t="n">
-        <v>5738.25</v>
-      </c>
-      <c r="G9" t="n">
-        <v>5357.43</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -680,64 +593,37 @@
       <c r="D10" t="n">
         <v>2778.97</v>
       </c>
-      <c r="E10" t="n">
-        <v>896.6900000000005</v>
-      </c>
-      <c r="F10" t="n">
-        <v>13557.54</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2778.97</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2006年B</t>
+          <t>2006年C</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11681.81</v>
+        <v>12266.07</v>
       </c>
       <c r="C11" t="n">
-        <v>18831.93</v>
+        <v>23848.68</v>
       </c>
       <c r="D11" t="n">
-        <v>7150.12</v>
-      </c>
-      <c r="E11" t="n">
-        <v>903.2399999999998</v>
-      </c>
-      <c r="F11" t="n">
-        <v>5274.389999999999</v>
-      </c>
-      <c r="G11" t="n">
-        <v>4371.15</v>
+        <v>11582.61</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2006年C</t>
+          <t>2006年B</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12266.07</v>
+        <v>11681.81</v>
       </c>
       <c r="C12" t="n">
-        <v>23848.68</v>
+        <v>18831.93</v>
       </c>
       <c r="D12" t="n">
-        <v>11582.61</v>
-      </c>
-      <c r="E12" t="n">
-        <v>584.2600000000002</v>
-      </c>
-      <c r="F12" t="n">
-        <v>5016.75</v>
-      </c>
-      <c r="G12" t="n">
-        <v>4432.490000000001</v>
+        <v>7150.12</v>
       </c>
     </row>
     <row r="13">
@@ -755,15 +641,6 @@
       <c r="D13" t="n">
         <v>17376.19</v>
       </c>
-      <c r="E13" t="n">
-        <v>408.2200000000012</v>
-      </c>
-      <c r="F13" t="n">
-        <v>6201.799999999999</v>
-      </c>
-      <c r="G13" t="n">
-        <v>5793.579999999998</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -780,64 +657,37 @@
       <c r="D14" t="n">
         <v>2954.39</v>
       </c>
-      <c r="E14" t="n">
-        <v>275.2799999999988</v>
-      </c>
-      <c r="F14" t="n">
-        <v>15903.96</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2954.39</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2007年B</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>13919.39</v>
+        <v>14209.93</v>
       </c>
       <c r="C15" t="n">
-        <v>21937.88</v>
+        <v>27598.26</v>
       </c>
       <c r="D15" t="n">
-        <v>8018.49</v>
-      </c>
-      <c r="E15" t="n">
-        <v>969.8199999999997</v>
-      </c>
-      <c r="F15" t="n">
-        <v>6033.920000000002</v>
-      </c>
-      <c r="G15" t="n">
-        <v>5064.1</v>
+        <v>13388.33</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2007年C</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>14209.93</v>
+        <v>13919.39</v>
       </c>
       <c r="C16" t="n">
-        <v>27598.26</v>
+        <v>21937.88</v>
       </c>
       <c r="D16" t="n">
-        <v>13388.33</v>
-      </c>
-      <c r="E16" t="n">
-        <v>290.5400000000009</v>
-      </c>
-      <c r="F16" t="n">
-        <v>5660.379999999997</v>
-      </c>
-      <c r="G16" t="n">
-        <v>5369.84</v>
+        <v>8018.49</v>
       </c>
     </row>
     <row r="17">
@@ -855,15 +705,6 @@
       <c r="D17" t="n">
         <v>19840.85</v>
       </c>
-      <c r="E17" t="n">
-        <v>14108.56</v>
-      </c>
-      <c r="F17" t="n">
-        <v>6351.16</v>
-      </c>
-      <c r="G17" t="n">
-        <v>6452.519999999999</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -880,64 +721,37 @@
       <c r="D18" t="n">
         <v>4052.21</v>
       </c>
-      <c r="E18" t="n">
-        <v>2055.16</v>
-      </c>
-      <c r="F18" t="n">
-        <v>20215.93</v>
-      </c>
-      <c r="G18" t="n">
-        <v>4052.21</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2008年B</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>17300.88</v>
+        <v>17662.36</v>
       </c>
       <c r="C19" t="n">
-        <v>27971.48</v>
+        <v>34528.08</v>
       </c>
       <c r="D19" t="n">
-        <v>10670.59</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1137.160000000002</v>
-      </c>
-      <c r="F19" t="n">
-        <v>7755.549999999999</v>
-      </c>
-      <c r="G19" t="n">
-        <v>6618.38</v>
+        <v>16865.72</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2008年C</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>17662.36</v>
+        <v>17300.88</v>
       </c>
       <c r="C20" t="n">
-        <v>34528.08</v>
+        <v>27971.48</v>
       </c>
       <c r="D20" t="n">
-        <v>16865.72</v>
-      </c>
-      <c r="E20" t="n">
-        <v>361.4799999999996</v>
-      </c>
-      <c r="F20" t="n">
-        <v>6556.600000000002</v>
-      </c>
-      <c r="G20" t="n">
-        <v>6195.130000000001</v>
+        <v>10670.59</v>
       </c>
     </row>
     <row r="21">
@@ -955,15 +769,6 @@
       <c r="D21" t="n">
         <v>25703.41</v>
       </c>
-      <c r="E21" t="n">
-        <v>623.9099999999999</v>
-      </c>
-      <c r="F21" t="n">
-        <v>9461.599999999999</v>
-      </c>
-      <c r="G21" t="n">
-        <v>8837.689999999999</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -980,64 +785,37 @@
       <c r="D22" t="n">
         <v>5596.79</v>
       </c>
-      <c r="E22" t="n">
-        <v>3779.419999999998</v>
-      </c>
-      <c r="F22" t="n">
-        <v>27662.48</v>
-      </c>
-      <c r="G22" t="n">
-        <v>5596.79</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2009年B</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>23709.04</v>
+        <v>22938.16</v>
       </c>
       <c r="C23" t="n">
-        <v>37891.58</v>
+        <v>44796.03</v>
       </c>
       <c r="D23" t="n">
-        <v>14182.53</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1643.350000000002</v>
-      </c>
-      <c r="F23" t="n">
-        <v>10229.1</v>
-      </c>
-      <c r="G23" t="n">
-        <v>8585.740000000002</v>
+        <v>21857.87</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2009年C</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>22938.16</v>
+        <v>23709.04</v>
       </c>
       <c r="C24" t="n">
-        <v>44796.03</v>
+        <v>37891.58</v>
       </c>
       <c r="D24" t="n">
-        <v>21857.87</v>
-      </c>
-      <c r="E24" t="n">
-        <v>22938.16</v>
-      </c>
-      <c r="F24" t="n">
-        <v>6904.449999999997</v>
-      </c>
-      <c r="G24" t="n">
-        <v>7675.339999999998</v>
+        <v>14182.53</v>
       </c>
     </row>
     <row r="25">
@@ -1055,15 +833,6 @@
       <c r="D25" t="n">
         <v>35523.86</v>
       </c>
-      <c r="E25" t="n">
-        <v>1232.639999999999</v>
-      </c>
-      <c r="F25" t="n">
-        <v>14898.63</v>
-      </c>
-      <c r="G25" t="n">
-        <v>13665.99</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1080,64 +849,37 @@
       <c r="D26" t="n">
         <v>6874.69</v>
       </c>
-      <c r="E26" t="n">
-        <v>5046.970000000001</v>
-      </c>
-      <c r="F26" t="n">
-        <v>36092.46</v>
-      </c>
-      <c r="G26" t="n">
-        <v>6874.69</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2010年B</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>31293.29</v>
+        <v>31542.38</v>
       </c>
       <c r="C27" t="n">
-        <v>48321.98</v>
+        <v>59095.01</v>
       </c>
       <c r="D27" t="n">
-        <v>17028.69</v>
-      </c>
-      <c r="E27" t="n">
-        <v>2075.52</v>
-      </c>
-      <c r="F27" t="n">
-        <v>12229.52</v>
-      </c>
-      <c r="G27" t="n">
-        <v>10154</v>
+        <v>27552.63</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2010年C</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31542.38</v>
+        <v>31293.29</v>
       </c>
       <c r="C28" t="n">
-        <v>59095.01</v>
+        <v>48321.98</v>
       </c>
       <c r="D28" t="n">
-        <v>27552.63</v>
-      </c>
-      <c r="E28" t="n">
-        <v>249.0900000000001</v>
-      </c>
-      <c r="F28" t="n">
-        <v>10773.03</v>
-      </c>
-      <c r="G28" t="n">
-        <v>10523.94</v>
+        <v>17028.69</v>
       </c>
     </row>
     <row r="29">
@@ -1155,15 +897,6 @@
       <c r="D29" t="n">
         <v>43034.28</v>
       </c>
-      <c r="E29" t="n">
-        <v>117.6800000000003</v>
-      </c>
-      <c r="F29" t="n">
-        <v>15599.32999999999</v>
-      </c>
-      <c r="G29" t="n">
-        <v>15481.65</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1180,64 +913,37 @@
       <c r="D30" t="n">
         <v>7948.51</v>
       </c>
-      <c r="E30" t="n">
-        <v>9291.740000000002</v>
-      </c>
-      <c r="F30" t="n">
-        <v>48900.32</v>
-      </c>
-      <c r="G30" t="n">
-        <v>7948.51</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2011年B</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>41517.13</v>
+        <v>40170.8</v>
       </c>
       <c r="C31" t="n">
-        <v>60320.41</v>
+        <v>69761</v>
       </c>
       <c r="D31" t="n">
-        <v>18803.28</v>
-      </c>
-      <c r="E31" t="n">
-        <v>565.3299999999945</v>
-      </c>
-      <c r="F31" t="n">
-        <v>11420.09</v>
-      </c>
-      <c r="G31" t="n">
-        <v>10854.77</v>
+        <v>29590.19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2011年C</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>40170.8</v>
+        <v>41517.13</v>
       </c>
       <c r="C32" t="n">
-        <v>69761</v>
+        <v>60320.41</v>
       </c>
       <c r="D32" t="n">
-        <v>29590.19</v>
-      </c>
-      <c r="E32" t="n">
-        <v>40170.8</v>
-      </c>
-      <c r="F32" t="n">
-        <v>9440.589999999997</v>
-      </c>
-      <c r="G32" t="n">
-        <v>10786.91</v>
+        <v>18803.28</v>
       </c>
     </row>
     <row r="33">
@@ -1255,15 +961,6 @@
       <c r="D33" t="n">
         <v>44335.52</v>
       </c>
-      <c r="E33" t="n">
-        <v>1140.209999999999</v>
-      </c>
-      <c r="F33" t="n">
-        <v>15885.53</v>
-      </c>
-      <c r="G33" t="n">
-        <v>14745.33</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1280,64 +977,37 @@
       <c r="D34" t="n">
         <v>8466.360000000001</v>
       </c>
-      <c r="E34" t="n">
-        <v>3718.449999999997</v>
-      </c>
-      <c r="F34" t="n">
-        <v>53495.82</v>
-      </c>
-      <c r="G34" t="n">
-        <v>8466.360000000001</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2012年B</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>47669.21</v>
+        <v>47846.21</v>
       </c>
       <c r="C35" t="n">
-        <v>68804.60000000001</v>
+        <v>81879.64999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>21135.39</v>
-      </c>
-      <c r="E35" t="n">
-        <v>2639.75</v>
-      </c>
-      <c r="F35" t="n">
-        <v>15308.78000000001</v>
-      </c>
-      <c r="G35" t="n">
-        <v>12669.03</v>
+        <v>34033.44</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2012年C</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>47846.21</v>
+        <v>47669.21</v>
       </c>
       <c r="C36" t="n">
-        <v>81879.64999999999</v>
+        <v>68804.60000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>34033.44</v>
-      </c>
-      <c r="E36" t="n">
-        <v>177</v>
-      </c>
-      <c r="F36" t="n">
-        <v>13075.04999999999</v>
-      </c>
-      <c r="G36" t="n">
-        <v>12898.05</v>
+        <v>21135.39</v>
       </c>
     </row>
     <row r="37">
@@ -1355,15 +1025,6 @@
       <c r="D37" t="n">
         <v>52350.44</v>
       </c>
-      <c r="E37" t="n">
-        <v>1199.43</v>
-      </c>
-      <c r="F37" t="n">
-        <v>19516.43000000001</v>
-      </c>
-      <c r="G37" t="n">
-        <v>18317</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1380,64 +1041,37 @@
       <c r="D38" t="n">
         <v>10538.94</v>
       </c>
-      <c r="E38" t="n">
-        <v>726.8199999999997</v>
-      </c>
-      <c r="F38" t="n">
-        <v>60311.41</v>
-      </c>
-      <c r="G38" t="n">
-        <v>10538.94</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2013年B</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>52777.89</v>
+        <v>52987.46</v>
       </c>
       <c r="C39" t="n">
-        <v>80084.78</v>
+        <v>94817.49000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>27306.89</v>
-      </c>
-      <c r="E39" t="n">
-        <v>3005.43</v>
-      </c>
-      <c r="F39" t="n">
-        <v>19773.37</v>
-      </c>
-      <c r="G39" t="n">
-        <v>16767.95</v>
+        <v>41830.03</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2013年C</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52987.46</v>
+        <v>52777.89</v>
       </c>
       <c r="C40" t="n">
-        <v>94817.49000000001</v>
+        <v>80084.78</v>
       </c>
       <c r="D40" t="n">
-        <v>41830.03</v>
-      </c>
-      <c r="E40" t="n">
-        <v>209.5699999999997</v>
-      </c>
-      <c r="F40" t="n">
-        <v>14732.71000000001</v>
-      </c>
-      <c r="G40" t="n">
-        <v>14523.14</v>
+        <v>27306.89</v>
       </c>
     </row>
     <row r="41">
@@ -1455,15 +1089,6 @@
       <c r="D41" t="n">
         <v>62077.67</v>
       </c>
-      <c r="E41" t="n">
-        <v>432.8199999999997</v>
-      </c>
-      <c r="F41" t="n">
-        <v>20680.45</v>
-      </c>
-      <c r="G41" t="n">
-        <v>20247.64</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1480,64 +1105,37 @@
       <c r="D42" t="n">
         <v>11687.69</v>
       </c>
-      <c r="E42" t="n">
-        <v>5148.489999999998</v>
-      </c>
-      <c r="F42" t="n">
-        <v>70256.46000000001</v>
-      </c>
-      <c r="G42" t="n">
-        <v>11687.69</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2014年B</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>63154.32</v>
+        <v>63402.44</v>
       </c>
       <c r="C43" t="n">
-        <v>93486.33</v>
+        <v>108246.84</v>
       </c>
       <c r="D43" t="n">
-        <v>30332.01</v>
-      </c>
-      <c r="E43" t="n">
-        <v>4585.550000000003</v>
-      </c>
-      <c r="F43" t="n">
-        <v>23229.87</v>
-      </c>
-      <c r="G43" t="n">
-        <v>18644.32</v>
+        <v>44844.4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2014年C</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>63402.44</v>
+        <v>63154.32</v>
       </c>
       <c r="C44" t="n">
-        <v>108246.84</v>
+        <v>93486.33</v>
       </c>
       <c r="D44" t="n">
-        <v>44844.4</v>
-      </c>
-      <c r="E44" t="n">
-        <v>248.1200000000026</v>
-      </c>
-      <c r="F44" t="n">
-        <v>14760.50999999999</v>
-      </c>
-      <c r="G44" t="n">
-        <v>14512.39</v>
+        <v>30332.01</v>
       </c>
     </row>
     <row r="45">
@@ -1555,15 +1153,6 @@
       <c r="D45" t="n">
         <v>66228.75</v>
       </c>
-      <c r="E45" t="n">
-        <v>1494.779999999999</v>
-      </c>
-      <c r="F45" t="n">
-        <v>22879.12</v>
-      </c>
-      <c r="G45" t="n">
-        <v>21384.35</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1580,64 +1169,37 @@
       <c r="D46" t="n">
         <v>11326.24</v>
       </c>
-      <c r="E46" t="n">
-        <v>2340.520000000004</v>
-      </c>
-      <c r="F46" t="n">
-        <v>78563.98</v>
-      </c>
-      <c r="G46" t="n">
-        <v>11326.24</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2015年B</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>70043.62</v>
+        <v>71917.85000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>97741.57000000001</v>
+        <v>114815.09</v>
       </c>
       <c r="D47" t="n">
-        <v>27697.95</v>
-      </c>
-      <c r="E47" t="n">
-        <v>2805.87999999999</v>
-      </c>
-      <c r="F47" t="n">
-        <v>19177.59000000001</v>
-      </c>
-      <c r="G47" t="n">
-        <v>16371.71</v>
+        <v>42897.24</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2015年C</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>71917.85000000001</v>
+        <v>70043.62</v>
       </c>
       <c r="C48" t="n">
-        <v>114815.09</v>
+        <v>97741.57000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>42897.24</v>
-      </c>
-      <c r="E48" t="n">
-        <v>1874.23000000001</v>
-      </c>
-      <c r="F48" t="n">
-        <v>17073.51999999999</v>
-      </c>
-      <c r="G48" t="n">
-        <v>15199.29</v>
+        <v>27697.95</v>
       </c>
     </row>
     <row r="49">
@@ -1655,15 +1217,6 @@
       <c r="D49" t="n">
         <v>70014.07000000001</v>
       </c>
-      <c r="E49" t="n">
-        <v>996.2099999999919</v>
-      </c>
-      <c r="F49" t="n">
-        <v>28113.04000000001</v>
-      </c>
-      <c r="G49" t="n">
-        <v>27116.83000000001</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1680,64 +1233,37 @@
       <c r="D50" t="n">
         <v>13691.49</v>
       </c>
-      <c r="E50" t="n">
-        <v>2739.600000000006</v>
-      </c>
-      <c r="F50" t="n">
-        <v>89345.14999999999</v>
-      </c>
-      <c r="G50" t="n">
-        <v>13691.49</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2016年B</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>79965.27</v>
+        <v>80422.46000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>114821.32</v>
+        <v>134207.07</v>
       </c>
       <c r="D51" t="n">
-        <v>34856.05</v>
-      </c>
-      <c r="E51" t="n">
-        <v>4311.610000000001</v>
-      </c>
-      <c r="F51" t="n">
-        <v>25476.17000000001</v>
-      </c>
-      <c r="G51" t="n">
-        <v>21164.56</v>
+        <v>53784.6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2016年C</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>80422.46000000001</v>
+        <v>79965.27</v>
       </c>
       <c r="C52" t="n">
-        <v>134207.07</v>
+        <v>114821.32</v>
       </c>
       <c r="D52" t="n">
-        <v>53784.6</v>
-      </c>
-      <c r="E52" t="n">
-        <v>457.1900000000023</v>
-      </c>
-      <c r="F52" t="n">
-        <v>19385.75</v>
-      </c>
-      <c r="G52" t="n">
-        <v>18928.55</v>
+        <v>34856.05</v>
       </c>
     </row>
     <row r="53">
@@ -1755,15 +1281,6 @@
       <c r="D53" t="n">
         <v>84889.85000000001</v>
       </c>
-      <c r="E53" t="n">
-        <v>500.5099999999948</v>
-      </c>
-      <c r="F53" t="n">
-        <v>31605.75</v>
-      </c>
-      <c r="G53" t="n">
-        <v>31105.25000000001</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1780,64 +1297,37 @@
       <c r="D54" t="n">
         <v>17211.45</v>
       </c>
-      <c r="E54" t="n">
-        <v>14139.2</v>
-      </c>
-      <c r="F54" t="n">
-        <v>112273.62</v>
-      </c>
-      <c r="G54" t="n">
-        <v>17211.45</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2017年B</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>101303.22</v>
+        <v>101984.83</v>
       </c>
       <c r="C55" t="n">
-        <v>145215.45</v>
+        <v>170452.71</v>
       </c>
       <c r="D55" t="n">
-        <v>43912.23</v>
-      </c>
-      <c r="E55" t="n">
-        <v>6241.050000000003</v>
-      </c>
-      <c r="F55" t="n">
-        <v>32941.83000000002</v>
-      </c>
-      <c r="G55" t="n">
-        <v>26700.78</v>
+        <v>68467.88</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2017年C</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>101984.83</v>
+        <v>101303.22</v>
       </c>
       <c r="C56" t="n">
-        <v>170452.71</v>
+        <v>145215.45</v>
       </c>
       <c r="D56" t="n">
-        <v>68467.88</v>
-      </c>
-      <c r="E56" t="n">
-        <v>681.6100000000006</v>
-      </c>
-      <c r="F56" t="n">
-        <v>25237.25999999998</v>
-      </c>
-      <c r="G56" t="n">
-        <v>24555.65</v>
+        <v>43912.23</v>
       </c>
     </row>
     <row r="57">
@@ -1855,15 +1345,6 @@
       <c r="D57" t="n">
         <v>106054.35</v>
       </c>
-      <c r="E57" t="n">
-        <v>100082.22</v>
-      </c>
-      <c r="F57" t="n">
-        <v>35683.86000000002</v>
-      </c>
-      <c r="G57" t="n">
-        <v>37586.47</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -1880,64 +1361,37 @@
       <c r="D58" t="n">
         <v>20839.61</v>
       </c>
-      <c r="E58" t="n">
-        <v>18889.73</v>
-      </c>
-      <c r="F58" t="n">
-        <v>139811.56</v>
-      </c>
-      <c r="G58" t="n">
-        <v>20839.61</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2018年B</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>125770.17</v>
+        <v>127765.78</v>
       </c>
       <c r="C59" t="n">
-        <v>174143.07</v>
+        <v>199460.57</v>
       </c>
       <c r="D59" t="n">
-        <v>48372.89</v>
-      </c>
-      <c r="E59" t="n">
-        <v>6798.220000000001</v>
-      </c>
-      <c r="F59" t="n">
-        <v>34331.51000000001</v>
-      </c>
-      <c r="G59" t="n">
-        <v>27533.28</v>
+        <v>71694.8</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2018年C</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>127765.78</v>
+        <v>125770.17</v>
       </c>
       <c r="C60" t="n">
-        <v>199460.57</v>
+        <v>174143.07</v>
       </c>
       <c r="D60" t="n">
-        <v>71694.8</v>
-      </c>
-      <c r="E60" t="n">
-        <v>1995.610000000001</v>
-      </c>
-      <c r="F60" t="n">
-        <v>25317.5</v>
-      </c>
-      <c r="G60" t="n">
-        <v>23321.91</v>
+        <v>48372.89</v>
       </c>
     </row>
     <row r="61">
@@ -1955,15 +1409,6 @@
       <c r="D61" t="n">
         <v>111253.26</v>
       </c>
-      <c r="E61" t="n">
-        <v>124603.91</v>
-      </c>
-      <c r="F61" t="n">
-        <v>36396.60000000001</v>
-      </c>
-      <c r="G61" t="n">
-        <v>39558.45999999999</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -1980,64 +1425,37 @@
       <c r="D62" t="n">
         <v>22376.92</v>
       </c>
-      <c r="E62" t="n">
-        <v>10434.66</v>
-      </c>
-      <c r="F62" t="n">
-        <v>157415.49</v>
-      </c>
-      <c r="G62" t="n">
-        <v>22376.92</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2019年B</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>139664.08</v>
+        <v>142187.94</v>
       </c>
       <c r="C63" t="n">
-        <v>191636.18</v>
+        <v>223027.42</v>
       </c>
       <c r="D63" t="n">
-        <v>51972.1</v>
-      </c>
-      <c r="E63" t="n">
-        <v>4625.50999999998</v>
-      </c>
-      <c r="F63" t="n">
-        <v>34220.69</v>
-      </c>
-      <c r="G63" t="n">
-        <v>29595.18</v>
+        <v>80839.48</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2019年C</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>142187.94</v>
+        <v>139664.08</v>
       </c>
       <c r="C64" t="n">
-        <v>223027.42</v>
+        <v>191636.18</v>
       </c>
       <c r="D64" t="n">
-        <v>80839.48</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2523.860000000015</v>
-      </c>
-      <c r="F64" t="n">
-        <v>31391.24000000002</v>
-      </c>
-      <c r="G64" t="n">
-        <v>28867.38</v>
+        <v>51972.1</v>
       </c>
     </row>
     <row r="65">
@@ -2055,15 +1473,6 @@
       <c r="D65" t="n">
         <v>127556.85</v>
       </c>
-      <c r="E65" t="n">
-        <v>3342.109999999986</v>
-      </c>
-      <c r="F65" t="n">
-        <v>50059.48000000001</v>
-      </c>
-      <c r="G65" t="n">
-        <v>46717.37000000001</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -2080,64 +1489,37 @@
       <c r="D66" t="n">
         <v>20998.78</v>
       </c>
-      <c r="E66" t="n">
-        <v>7388</v>
-      </c>
-      <c r="F66" t="n">
-        <v>173916.82</v>
-      </c>
-      <c r="G66" t="n">
-        <v>20998.78</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2020年B</t>
+          <t>2020年C</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>153345.36</v>
+        <v>152481.9</v>
       </c>
       <c r="C67" t="n">
-        <v>210484.5</v>
+        <v>245453.5</v>
       </c>
       <c r="D67" t="n">
-        <v>57139.14</v>
-      </c>
-      <c r="E67" t="n">
-        <v>427.3099999999977</v>
-      </c>
-      <c r="F67" t="n">
-        <v>36567.67999999999</v>
-      </c>
-      <c r="G67" t="n">
-        <v>36140.36</v>
+        <v>92971.60000000001</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2020年C</t>
+          <t>2020年B</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>152481.9</v>
+        <v>153345.36</v>
       </c>
       <c r="C68" t="n">
-        <v>245453.5</v>
+        <v>210484.5</v>
       </c>
       <c r="D68" t="n">
-        <v>92971.60000000001</v>
-      </c>
-      <c r="E68" t="n">
-        <v>152481.9</v>
-      </c>
-      <c r="F68" t="n">
-        <v>34969</v>
-      </c>
-      <c r="G68" t="n">
-        <v>35832.46000000001</v>
+        <v>57139.14</v>
       </c>
     </row>
     <row r="69">
@@ -2155,15 +1537,6 @@
       <c r="D69" t="n">
         <v>152439.43</v>
       </c>
-      <c r="E69" t="n">
-        <v>3619.470000000001</v>
-      </c>
-      <c r="F69" t="n">
-        <v>63087.29999999999</v>
-      </c>
-      <c r="G69" t="n">
-        <v>59467.82999999999</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -2180,64 +1553,37 @@
       <c r="D70" t="n">
         <v>28096.69</v>
       </c>
-      <c r="E70" t="n">
-        <v>8876.350000000006</v>
-      </c>
-      <c r="F70" t="n">
-        <v>193074.42</v>
-      </c>
-      <c r="G70" t="n">
-        <v>28096.69</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2021年B</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>175853.22</v>
+        <v>178375.53</v>
       </c>
       <c r="C71" t="n">
-        <v>244267</v>
+        <v>279615.39</v>
       </c>
       <c r="D71" t="n">
-        <v>68413.78</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10875.5</v>
-      </c>
-      <c r="F71" t="n">
-        <v>51192.57999999999</v>
-      </c>
-      <c r="G71" t="n">
-        <v>40317.09</v>
+        <v>101239.86</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2021年C</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>178375.53</v>
+        <v>175853.22</v>
       </c>
       <c r="C72" t="n">
-        <v>279615.39</v>
+        <v>244267</v>
       </c>
       <c r="D72" t="n">
-        <v>101239.86</v>
-      </c>
-      <c r="E72" t="n">
-        <v>2522.309999999998</v>
-      </c>
-      <c r="F72" t="n">
-        <v>35348.39000000001</v>
-      </c>
-      <c r="G72" t="n">
-        <v>32826.08</v>
+        <v>68413.78</v>
       </c>
     </row>
     <row r="73">
@@ -2247,22 +1593,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>182517.51</v>
+        <v>185775.33</v>
       </c>
       <c r="C73" t="n">
-        <v>348186.36</v>
+        <v>355428.02</v>
       </c>
       <c r="D73" t="n">
-        <v>165668.86</v>
-      </c>
-      <c r="E73" t="n">
-        <v>4141.98000000001</v>
-      </c>
-      <c r="F73" t="n">
-        <v>68570.96999999997</v>
-      </c>
-      <c r="G73" t="n">
-        <v>64428.99999999999</v>
+        <v>169652.69</v>
       </c>
     </row>
   </sheetData>
